--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="11190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +46,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,84 +348,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>susana</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>susana@</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>7d4e3eec80026719639ed4dba68916eb94c7a49a053e05c8f9578fe4e5a3d7ea</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>WRWRTGQWARGFQA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> EFQEGQEG</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>WEFRQAEDGVSVWRWRGWETHGFFGR2W4GTFASVAD</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>debora</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>deborafilipa321@gmail.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1d6442ddcfd9db1ff81df77cbefcd5afcc8c7ca952ab3101ede17a84b866d3f3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3rwefrgtey4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> debora filipa</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>rua da avenida nº32</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>